--- a/dataset/xlsx/away-covid.xlsx
+++ b/dataset/xlsx/away-covid.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5840" uniqueCount="2480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5843" uniqueCount="2481">
   <si>
     <t>gid</t>
   </si>
@@ -5948,6 +5948,9 @@
   </si>
   <si>
     <t>https://www.facebook.com/ryinfo19/photos/pcb.232585638376429/232584398376553/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/808593319236400/photos/a.809202585842140/3562884563807248/</t>
   </si>
   <si>
     <t>https://www.facebook.com/pr.chanthaburi/photos/pcb.2962084450738587/2962084277405271</t>
@@ -7921,22 +7924,22 @@
         <v>1800</v>
       </c>
       <c r="M2" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="N2" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="O2" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="P2" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="Q2" t="s">
         <v>46</v>
       </c>
       <c r="R2" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -7974,22 +7977,22 @@
         <v>1801</v>
       </c>
       <c r="M3" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="N3" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="O3" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="P3" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="Q3" t="s">
         <v>39</v>
       </c>
       <c r="R3" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -8027,22 +8030,22 @@
         <v>1802</v>
       </c>
       <c r="M4" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="N4" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="O4" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="P4" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="Q4" t="s">
         <v>43</v>
       </c>
       <c r="R4" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -8080,16 +8083,16 @@
         <v>1803</v>
       </c>
       <c r="O5" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="P5" t="s">
-        <v>2362</v>
+        <v>2363</v>
       </c>
       <c r="Q5" t="s">
         <v>37</v>
       </c>
       <c r="R5" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -8127,22 +8130,22 @@
         <v>1804</v>
       </c>
       <c r="M6" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="N6" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="O6" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="P6" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="Q6" t="s">
         <v>41</v>
       </c>
       <c r="R6" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -8180,22 +8183,22 @@
         <v>1805</v>
       </c>
       <c r="M7" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="N7" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="O7" t="s">
-        <v>2308</v>
+        <v>2309</v>
       </c>
       <c r="P7" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="Q7" t="s">
         <v>28</v>
       </c>
       <c r="R7" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -8233,22 +8236,22 @@
         <v>1806</v>
       </c>
       <c r="M8" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="N8" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="O8" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="P8" t="s">
-        <v>2364</v>
+        <v>2365</v>
       </c>
       <c r="Q8" t="s">
         <v>41</v>
       </c>
       <c r="R8" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -8286,22 +8289,22 @@
         <v>1807</v>
       </c>
       <c r="M9" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="N9" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="O9" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="P9" t="s">
-        <v>2365</v>
+        <v>2366</v>
       </c>
       <c r="Q9" t="s">
         <v>55</v>
       </c>
       <c r="R9" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -8339,22 +8342,22 @@
         <v>1808</v>
       </c>
       <c r="M10" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="N10" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="O10" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="P10" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="Q10" t="s">
         <v>43</v>
       </c>
       <c r="R10" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -8392,22 +8395,22 @@
         <v>1808</v>
       </c>
       <c r="M11" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="N11" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="O11" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="P11" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="Q11" t="s">
         <v>41</v>
       </c>
       <c r="R11" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -8445,22 +8448,22 @@
         <v>1809</v>
       </c>
       <c r="M12" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="N12" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="O12" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="P12" t="s">
-        <v>2365</v>
+        <v>2366</v>
       </c>
       <c r="Q12" t="s">
         <v>55</v>
       </c>
       <c r="R12" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -8498,22 +8501,22 @@
         <v>1810</v>
       </c>
       <c r="M13" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="N13" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="O13" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="P13" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="Q13" t="s">
         <v>28</v>
       </c>
       <c r="R13" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -8551,19 +8554,19 @@
         <v>1811</v>
       </c>
       <c r="M14" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="N14" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="O14" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="P14" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="R14" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -8601,22 +8604,22 @@
         <v>1812</v>
       </c>
       <c r="M15" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="N15" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="O15" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="P15" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="Q15" t="s">
         <v>39</v>
       </c>
       <c r="R15" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -8654,22 +8657,22 @@
         <v>1813</v>
       </c>
       <c r="M16" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="N16" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="O16" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="P16" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="Q16" t="s">
         <v>58</v>
       </c>
       <c r="R16" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -8707,22 +8710,22 @@
         <v>1814</v>
       </c>
       <c r="M17" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="N17" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="O17" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="P17" t="s">
-        <v>2366</v>
+        <v>2367</v>
       </c>
       <c r="Q17" t="s">
         <v>71</v>
       </c>
       <c r="R17" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -8760,22 +8763,22 @@
         <v>1815</v>
       </c>
       <c r="M18" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="N18" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="O18" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="P18" t="s">
-        <v>2367</v>
+        <v>2368</v>
       </c>
       <c r="Q18" t="s">
         <v>48</v>
       </c>
       <c r="R18" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -8813,22 +8816,22 @@
         <v>1816</v>
       </c>
       <c r="M19" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="N19" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="O19" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="P19" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="Q19" t="s">
         <v>170</v>
       </c>
       <c r="R19" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -8866,13 +8869,13 @@
         <v>1817</v>
       </c>
       <c r="O20" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="Q20" t="s">
         <v>39</v>
       </c>
       <c r="R20" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -8910,13 +8913,13 @@
         <v>1817</v>
       </c>
       <c r="O21" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="Q21" t="s">
         <v>51</v>
       </c>
       <c r="R21" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -8954,22 +8957,22 @@
         <v>1815</v>
       </c>
       <c r="M22" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="N22" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="O22" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="P22" t="s">
-        <v>2367</v>
+        <v>2368</v>
       </c>
       <c r="Q22" t="s">
         <v>39</v>
       </c>
       <c r="R22" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -9007,16 +9010,16 @@
         <v>1818</v>
       </c>
       <c r="M23" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="N23" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="O23" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="P23" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -9054,16 +9057,16 @@
         <v>1818</v>
       </c>
       <c r="M24" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="N24" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="O24" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="P24" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -9101,16 +9104,16 @@
         <v>1819</v>
       </c>
       <c r="M25" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="N25" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="O25" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="P25" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -9148,13 +9151,13 @@
         <v>1817</v>
       </c>
       <c r="O26" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="Q26" t="s">
         <v>58</v>
       </c>
       <c r="R26" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -9192,13 +9195,13 @@
         <v>1817</v>
       </c>
       <c r="O27" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="Q27" t="s">
         <v>41</v>
       </c>
       <c r="R27" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -9236,16 +9239,16 @@
         <v>1811</v>
       </c>
       <c r="M28" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="N28" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="O28" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="P28" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -9283,13 +9286,13 @@
         <v>1817</v>
       </c>
       <c r="O29" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="Q29" t="s">
         <v>40</v>
       </c>
       <c r="R29" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -9327,13 +9330,13 @@
         <v>1820</v>
       </c>
       <c r="O30" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="Q30" t="s">
         <v>46</v>
       </c>
       <c r="R30" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -9371,22 +9374,22 @@
         <v>1821</v>
       </c>
       <c r="M31" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="N31" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="O31" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="P31" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
       <c r="Q31" t="s">
         <v>63</v>
       </c>
       <c r="R31" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -9424,16 +9427,16 @@
         <v>1822</v>
       </c>
       <c r="M32" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="N32" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="O32" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="P32" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -9471,13 +9474,13 @@
         <v>1823</v>
       </c>
       <c r="O33" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="Q33" t="s">
         <v>40</v>
       </c>
       <c r="R33" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -9515,22 +9518,22 @@
         <v>1824</v>
       </c>
       <c r="M34" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="N34" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="O34" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="P34" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="Q34" t="s">
         <v>64</v>
       </c>
       <c r="R34" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -9568,22 +9571,22 @@
         <v>1824</v>
       </c>
       <c r="M35" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="N35" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="O35" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="P35" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="Q35" t="s">
         <v>50</v>
       </c>
       <c r="R35" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -9621,22 +9624,22 @@
         <v>1824</v>
       </c>
       <c r="M36" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="N36" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="O36" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="P36" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="Q36" t="s">
         <v>62</v>
       </c>
       <c r="R36" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -9674,22 +9677,22 @@
         <v>1824</v>
       </c>
       <c r="M37" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="N37" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="O37" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="P37" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="Q37" t="s">
         <v>58</v>
       </c>
       <c r="R37" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -9727,22 +9730,22 @@
         <v>1824</v>
       </c>
       <c r="M38" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="N38" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="O38" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="P38" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="Q38" t="s">
         <v>108</v>
       </c>
       <c r="R38" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -9780,22 +9783,22 @@
         <v>1824</v>
       </c>
       <c r="M39" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="N39" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="O39" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="P39" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="Q39" t="s">
         <v>51</v>
       </c>
       <c r="R39" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -9833,22 +9836,22 @@
         <v>1824</v>
       </c>
       <c r="M40" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="N40" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="O40" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="P40" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="Q40" t="s">
         <v>104</v>
       </c>
       <c r="R40" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -9886,22 +9889,22 @@
         <v>1824</v>
       </c>
       <c r="M41" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="N41" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="O41" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="P41" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="Q41" t="s">
         <v>87</v>
       </c>
       <c r="R41" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -9939,22 +9942,22 @@
         <v>1825</v>
       </c>
       <c r="M42" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="N42" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="O42" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="P42" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="Q42" t="s">
         <v>109</v>
       </c>
       <c r="R42" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -9992,22 +9995,22 @@
         <v>1824</v>
       </c>
       <c r="M43" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="N43" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="O43" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="P43" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="Q43" t="s">
         <v>45</v>
       </c>
       <c r="R43" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -10045,13 +10048,13 @@
         <v>1826</v>
       </c>
       <c r="O44" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="Q44" t="s">
         <v>104</v>
       </c>
       <c r="R44" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -10089,22 +10092,22 @@
         <v>1827</v>
       </c>
       <c r="M45" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="N45" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="O45" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="P45" t="s">
-        <v>2371</v>
+        <v>2372</v>
       </c>
       <c r="Q45" t="s">
         <v>57</v>
       </c>
       <c r="R45" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -10142,22 +10145,22 @@
         <v>1824</v>
       </c>
       <c r="M46" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="N46" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="O46" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="P46" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="Q46" t="s">
         <v>70</v>
       </c>
       <c r="R46" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -10195,22 +10198,22 @@
         <v>1824</v>
       </c>
       <c r="M47" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="N47" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="O47" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="P47" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="Q47" t="s">
         <v>43</v>
       </c>
       <c r="R47" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -10248,22 +10251,22 @@
         <v>1824</v>
       </c>
       <c r="M48" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="N48" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="O48" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="P48" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="Q48" t="s">
         <v>36</v>
       </c>
       <c r="R48" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -10301,22 +10304,22 @@
         <v>1828</v>
       </c>
       <c r="M49" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="N49" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="O49" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="P49" t="s">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="Q49" t="s">
         <v>46</v>
       </c>
       <c r="R49" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -10354,16 +10357,16 @@
         <v>1829</v>
       </c>
       <c r="M50" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="N50" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="O50" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="P50" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -10401,22 +10404,22 @@
         <v>1830</v>
       </c>
       <c r="M51" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="N51" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="O51" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="P51" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
       <c r="Q51" t="s">
         <v>54</v>
       </c>
       <c r="R51" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -10454,22 +10457,22 @@
         <v>1831</v>
       </c>
       <c r="M52" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="N52" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="O52" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="P52" t="s">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="Q52" t="s">
         <v>69</v>
       </c>
       <c r="R52" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -10507,22 +10510,22 @@
         <v>1832</v>
       </c>
       <c r="M53" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="N53" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="O53" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="P53" t="s">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="Q53" t="s">
         <v>146</v>
       </c>
       <c r="R53" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -10560,22 +10563,22 @@
         <v>1833</v>
       </c>
       <c r="M54" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="N54" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="O54" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="P54" t="s">
-        <v>2376</v>
+        <v>2377</v>
       </c>
       <c r="Q54" t="s">
         <v>37</v>
       </c>
       <c r="R54" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -10613,22 +10616,22 @@
         <v>1834</v>
       </c>
       <c r="M55" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="N55" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="O55" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="P55" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="Q55" t="s">
         <v>49</v>
       </c>
       <c r="R55" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -10666,16 +10669,16 @@
         <v>1834</v>
       </c>
       <c r="M56" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="N56" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="O56" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="P56" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -10713,22 +10716,22 @@
         <v>1835</v>
       </c>
       <c r="M57" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="N57" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="O57" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="P57" t="s">
-        <v>2367</v>
+        <v>2368</v>
       </c>
       <c r="Q57" t="s">
         <v>62</v>
       </c>
       <c r="R57" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -10766,16 +10769,16 @@
         <v>1836</v>
       </c>
       <c r="M58" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="N58" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="O58" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="P58" t="s">
-        <v>2379</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -10813,22 +10816,22 @@
         <v>1837</v>
       </c>
       <c r="M59" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="N59" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="O59" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="P59" t="s">
-        <v>2380</v>
+        <v>2381</v>
       </c>
       <c r="Q59" t="s">
         <v>104</v>
       </c>
       <c r="R59" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -10866,16 +10869,16 @@
         <v>1838</v>
       </c>
       <c r="M60" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="N60" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="O60" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="P60" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -10913,22 +10916,22 @@
         <v>1839</v>
       </c>
       <c r="M61" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="N61" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="O61" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="P61" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="Q61" t="s">
         <v>72</v>
       </c>
       <c r="R61" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -10966,16 +10969,16 @@
         <v>1840</v>
       </c>
       <c r="M62" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="N62" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="O62" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="P62" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -11013,22 +11016,22 @@
         <v>1841</v>
       </c>
       <c r="M63" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="N63" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="O63" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="P63" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
       <c r="Q63" t="s">
         <v>46</v>
       </c>
       <c r="R63" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -11066,22 +11069,22 @@
         <v>1842</v>
       </c>
       <c r="M64" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="N64" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="O64" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="P64" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="Q64" t="s">
         <v>64</v>
       </c>
       <c r="R64" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -11119,13 +11122,13 @@
         <v>1843</v>
       </c>
       <c r="O65" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="Q65" t="s">
         <v>28</v>
       </c>
       <c r="R65" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -11163,22 +11166,22 @@
         <v>1844</v>
       </c>
       <c r="M66" t="s">
+        <v>2096</v>
+      </c>
+      <c r="N66" t="s">
         <v>2095</v>
       </c>
-      <c r="N66" t="s">
-        <v>2094</v>
-      </c>
       <c r="O66" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="P66" t="s">
-        <v>2381</v>
+        <v>2382</v>
       </c>
       <c r="Q66" t="s">
         <v>59</v>
       </c>
       <c r="R66" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -11216,22 +11219,22 @@
         <v>1844</v>
       </c>
       <c r="M67" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="N67" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="O67" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="P67" t="s">
-        <v>2380</v>
+        <v>2381</v>
       </c>
       <c r="Q67" t="s">
         <v>56</v>
       </c>
       <c r="R67" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -11269,22 +11272,22 @@
         <v>1845</v>
       </c>
       <c r="M68" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="N68" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="O68" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="P68" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="Q68" t="s">
         <v>66</v>
       </c>
       <c r="R68" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -11322,16 +11325,16 @@
         <v>1846</v>
       </c>
       <c r="M69" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="N69" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="O69" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="P69" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -11369,22 +11372,22 @@
         <v>1847</v>
       </c>
       <c r="M70" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="N70" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="O70" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="P70" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="Q70" t="s">
         <v>58</v>
       </c>
       <c r="R70" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -11422,22 +11425,22 @@
         <v>1844</v>
       </c>
       <c r="M71" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="N71" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="O71" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="P71" t="s">
-        <v>2376</v>
+        <v>2377</v>
       </c>
       <c r="Q71" t="s">
         <v>65</v>
       </c>
       <c r="R71" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -11475,19 +11478,19 @@
         <v>1848</v>
       </c>
       <c r="N72" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="O72" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="P72" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="Q72" t="s">
         <v>72</v>
       </c>
       <c r="R72" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -11525,22 +11528,22 @@
         <v>1844</v>
       </c>
       <c r="M73" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="N73" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="O73" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="P73" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="Q73" t="s">
         <v>57</v>
       </c>
       <c r="R73" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -11578,22 +11581,22 @@
         <v>1844</v>
       </c>
       <c r="M74" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="N74" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="O74" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="P74" t="s">
-        <v>2376</v>
+        <v>2377</v>
       </c>
       <c r="Q74" t="s">
         <v>67</v>
       </c>
       <c r="R74" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -11631,16 +11634,16 @@
         <v>1849</v>
       </c>
       <c r="M75" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="N75" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="O75" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="P75" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -11678,19 +11681,19 @@
         <v>1850</v>
       </c>
       <c r="N76" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="O76" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="P76" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="Q76" t="s">
         <v>45</v>
       </c>
       <c r="R76" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -11728,19 +11731,19 @@
         <v>1851</v>
       </c>
       <c r="N77" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="O77" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="P77" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
       <c r="Q77" t="s">
         <v>28</v>
       </c>
       <c r="R77" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -11778,22 +11781,22 @@
         <v>1852</v>
       </c>
       <c r="M78" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="N78" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="O78" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="P78" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
       <c r="Q78" t="s">
         <v>39</v>
       </c>
       <c r="R78" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -11831,22 +11834,22 @@
         <v>1853</v>
       </c>
       <c r="M79" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="N79" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="O79" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="P79" t="s">
-        <v>2389</v>
+        <v>2390</v>
       </c>
       <c r="Q79" t="s">
         <v>69</v>
       </c>
       <c r="R79" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -11884,13 +11887,13 @@
         <v>1854</v>
       </c>
       <c r="O80" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="Q80" t="s">
         <v>49</v>
       </c>
       <c r="R80" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -11928,22 +11931,22 @@
         <v>1855</v>
       </c>
       <c r="M81" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="N81" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="O81" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="P81" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
       <c r="Q81" t="s">
         <v>39</v>
       </c>
       <c r="R81" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -11981,22 +11984,22 @@
         <v>1842</v>
       </c>
       <c r="M82" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="N82" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="O82" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="P82" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="Q82" t="s">
         <v>28</v>
       </c>
       <c r="R82" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -12034,22 +12037,22 @@
         <v>1842</v>
       </c>
       <c r="M83" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="N83" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="O83" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="P83" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="Q83" t="s">
         <v>49</v>
       </c>
       <c r="R83" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -12087,16 +12090,16 @@
         <v>1856</v>
       </c>
       <c r="M84" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="N84" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="O84" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="P84" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -12134,22 +12137,22 @@
         <v>1857</v>
       </c>
       <c r="M85" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="N85" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="O85" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="P85" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
       <c r="Q85" t="s">
         <v>165</v>
       </c>
       <c r="R85" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -12187,22 +12190,22 @@
         <v>1858</v>
       </c>
       <c r="M86" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="N86" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="O86" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="P86" t="s">
-        <v>2391</v>
+        <v>2392</v>
       </c>
       <c r="Q86" t="s">
         <v>40</v>
       </c>
       <c r="R86" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -12240,22 +12243,22 @@
         <v>1859</v>
       </c>
       <c r="M87" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="N87" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="O87" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="P87" t="s">
-        <v>2392</v>
+        <v>2393</v>
       </c>
       <c r="Q87" t="s">
         <v>58</v>
       </c>
       <c r="R87" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -12293,22 +12296,22 @@
         <v>1860</v>
       </c>
       <c r="M88" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="N88" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="O88" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="P88" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
       <c r="Q88" t="s">
         <v>69</v>
       </c>
       <c r="R88" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -12346,13 +12349,13 @@
         <v>1861</v>
       </c>
       <c r="O89" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="Q89" t="s">
         <v>55</v>
       </c>
       <c r="R89" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -12390,22 +12393,22 @@
         <v>1862</v>
       </c>
       <c r="M90" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="N90" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="O90" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="P90" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
       <c r="Q90" t="s">
         <v>118</v>
       </c>
       <c r="R90" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -12443,13 +12446,13 @@
         <v>1863</v>
       </c>
       <c r="O91" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="Q91" t="s">
         <v>59</v>
       </c>
       <c r="R91" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -12487,19 +12490,19 @@
         <v>1864</v>
       </c>
       <c r="M92" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="N92" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="O92" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="P92" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="R92" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -12537,22 +12540,22 @@
         <v>1865</v>
       </c>
       <c r="M93" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="N93" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="O93" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="P93" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
       <c r="Q93" t="s">
         <v>62</v>
       </c>
       <c r="R93" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -12590,22 +12593,22 @@
         <v>1866</v>
       </c>
       <c r="M94" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="N94" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="O94" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="P94" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="Q94" t="s">
         <v>72</v>
       </c>
       <c r="R94" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -12643,22 +12646,22 @@
         <v>1866</v>
       </c>
       <c r="M95" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="N95" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="O95" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="P95" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
       <c r="Q95" t="s">
         <v>28</v>
       </c>
       <c r="R95" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -12696,22 +12699,22 @@
         <v>1865</v>
       </c>
       <c r="M96" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="N96" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="O96" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="P96" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
       <c r="Q96" t="s">
         <v>62</v>
       </c>
       <c r="R96" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -12749,22 +12752,22 @@
         <v>1867</v>
       </c>
       <c r="M97" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="N97" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="O97" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="P97" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="Q97" t="s">
         <v>45</v>
       </c>
       <c r="R97" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -12802,22 +12805,22 @@
         <v>1868</v>
       </c>
       <c r="M98" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="N98" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="O98" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="P98" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="Q98" t="s">
         <v>73</v>
       </c>
       <c r="R98" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -12855,22 +12858,22 @@
         <v>1869</v>
       </c>
       <c r="M99" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="N99" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="O99" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="P99" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="Q99" t="s">
         <v>28</v>
       </c>
       <c r="R99" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -12908,13 +12911,13 @@
         <v>1870</v>
       </c>
       <c r="O100" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="Q100" t="s">
         <v>59</v>
       </c>
       <c r="R100" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -12952,22 +12955,22 @@
         <v>1871</v>
       </c>
       <c r="M101" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="N101" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="O101" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="P101" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
       <c r="Q101" t="s">
         <v>78</v>
       </c>
       <c r="R101" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -13005,22 +13008,22 @@
         <v>1872</v>
       </c>
       <c r="M102" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="N102" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="O102" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="P102" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
       <c r="Q102" t="s">
         <v>49</v>
       </c>
       <c r="R102" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -13058,13 +13061,13 @@
         <v>1870</v>
       </c>
       <c r="O103" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="Q103" t="s">
         <v>71</v>
       </c>
       <c r="R103" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -13102,22 +13105,22 @@
         <v>1873</v>
       </c>
       <c r="M104" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="N104" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="O104" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="P104" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
       <c r="Q104" t="s">
         <v>51</v>
       </c>
       <c r="R104" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -13155,19 +13158,19 @@
         <v>1874</v>
       </c>
       <c r="N105" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="O105" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="P105" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
       <c r="Q105" t="s">
         <v>57</v>
       </c>
       <c r="R105" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -13205,22 +13208,22 @@
         <v>1875</v>
       </c>
       <c r="M106" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="N106" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="O106" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="P106" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="Q106" t="s">
         <v>62</v>
       </c>
       <c r="R106" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -13258,13 +13261,13 @@
         <v>1870</v>
       </c>
       <c r="O107" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="Q107" t="s">
         <v>50</v>
       </c>
       <c r="R107" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -13302,13 +13305,13 @@
         <v>1870</v>
       </c>
       <c r="O108" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="Q108" t="s">
         <v>28</v>
       </c>
       <c r="R108" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -13346,22 +13349,22 @@
         <v>1876</v>
       </c>
       <c r="M109" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="N109" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="O109" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="P109" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="Q109" t="s">
         <v>74</v>
       </c>
       <c r="R109" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -13399,13 +13402,13 @@
         <v>1877</v>
       </c>
       <c r="O110" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="Q110" t="s">
         <v>49</v>
       </c>
       <c r="R110" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -13443,22 +13446,22 @@
         <v>1878</v>
       </c>
       <c r="M111" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="N111" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="O111" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="P111" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="Q111" t="s">
         <v>45</v>
       </c>
       <c r="R111" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -13496,22 +13499,22 @@
         <v>1879</v>
       </c>
       <c r="M112" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="N112" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="O112" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="P112" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="Q112" t="s">
         <v>62</v>
       </c>
       <c r="R112" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -13549,22 +13552,22 @@
         <v>1880</v>
       </c>
       <c r="M113" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="N113" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="O113" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="P113" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="Q113" t="s">
         <v>34</v>
       </c>
       <c r="R113" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -13602,22 +13605,22 @@
         <v>1881</v>
       </c>
       <c r="M114" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="N114" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="O114" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="P114" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
       <c r="Q114" t="s">
         <v>144</v>
       </c>
       <c r="R114" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -13655,22 +13658,22 @@
         <v>1881</v>
       </c>
       <c r="M115" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="N115" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="O115" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="P115" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
       <c r="Q115" t="s">
         <v>72</v>
       </c>
       <c r="R115" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -13708,22 +13711,22 @@
         <v>1881</v>
       </c>
       <c r="M116" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="N116" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="O116" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="P116" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
       <c r="Q116" t="s">
         <v>71</v>
       </c>
       <c r="R116" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -13761,22 +13764,22 @@
         <v>1882</v>
       </c>
       <c r="M117" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="N117" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="O117" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="P117" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
       <c r="Q117" t="s">
         <v>71</v>
       </c>
       <c r="R117" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -13814,22 +13817,22 @@
         <v>1883</v>
       </c>
       <c r="M118" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="N118" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="O118" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="P118" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
       <c r="Q118" t="s">
         <v>65</v>
       </c>
       <c r="R118" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -13867,13 +13870,13 @@
         <v>1884</v>
       </c>
       <c r="O119" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="Q119" t="s">
         <v>61</v>
       </c>
       <c r="R119" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -13911,19 +13914,19 @@
         <v>1885</v>
       </c>
       <c r="N120" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="O120" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="P120" t="s">
-        <v>2408</v>
+        <v>2409</v>
       </c>
       <c r="Q120" t="s">
         <v>49</v>
       </c>
       <c r="R120" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -13961,19 +13964,19 @@
         <v>1874</v>
       </c>
       <c r="N121" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="O121" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="P121" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
       <c r="Q121" t="s">
         <v>57</v>
       </c>
       <c r="R121" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -14011,22 +14014,22 @@
         <v>1886</v>
       </c>
       <c r="M122" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="N122" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="O122" t="s">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="P122" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
       <c r="Q122" t="s">
         <v>51</v>
       </c>
       <c r="R122" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -14064,13 +14067,13 @@
         <v>1887</v>
       </c>
       <c r="O123" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="Q123" t="s">
         <v>54</v>
       </c>
       <c r="R123" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -14108,22 +14111,22 @@
         <v>1888</v>
       </c>
       <c r="M124" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="N124" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="O124" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="P124" t="s">
-        <v>2367</v>
+        <v>2368</v>
       </c>
       <c r="Q124" t="s">
         <v>49</v>
       </c>
       <c r="R124" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -14158,22 +14161,22 @@
         <v>1889</v>
       </c>
       <c r="M125" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="N125" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="O125" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="P125" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="Q125" t="s">
         <v>65</v>
       </c>
       <c r="R125" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -14208,22 +14211,22 @@
         <v>1889</v>
       </c>
       <c r="M126" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="N126" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="O126" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="P126" t="s">
-        <v>2412</v>
+        <v>2413</v>
       </c>
       <c r="Q126" t="s">
         <v>55</v>
       </c>
       <c r="R126" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -14261,19 +14264,19 @@
         <v>1890</v>
       </c>
       <c r="N127" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="O127" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="P127" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="Q127" t="s">
         <v>55</v>
       </c>
       <c r="R127" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -14311,19 +14314,19 @@
         <v>1890</v>
       </c>
       <c r="N128" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="O128" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="P128" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="Q128" t="s">
         <v>43</v>
       </c>
       <c r="R128" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -14361,22 +14364,22 @@
         <v>1868</v>
       </c>
       <c r="M129" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="N129" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="O129" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="P129" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="Q129" t="s">
         <v>75</v>
       </c>
       <c r="R129" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -14414,22 +14417,22 @@
         <v>1868</v>
       </c>
       <c r="M130" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="N130" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="O130" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="P130" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="Q130" t="s">
         <v>104</v>
       </c>
       <c r="R130" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -14467,22 +14470,22 @@
         <v>1842</v>
       </c>
       <c r="M131" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="N131" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="O131" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="P131" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="Q131" t="s">
         <v>59</v>
       </c>
       <c r="R131" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -14520,22 +14523,22 @@
         <v>1891</v>
       </c>
       <c r="M132" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="N132" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="O132" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="P132" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
       <c r="Q132" t="s">
-        <v>2477</v>
+        <v>2478</v>
       </c>
       <c r="R132" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -14573,22 +14576,22 @@
         <v>1892</v>
       </c>
       <c r="M133" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="N133" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="O133" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="P133" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
       <c r="Q133" t="s">
         <v>41</v>
       </c>
       <c r="R133" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -14626,22 +14629,22 @@
         <v>1893</v>
       </c>
       <c r="M134" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="N134" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="O134" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="P134" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="Q134" t="s">
         <v>49</v>
       </c>
       <c r="R134" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -14679,22 +14682,22 @@
         <v>1894</v>
       </c>
       <c r="M135" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="N135" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="O135" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="P135" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
       <c r="Q135" t="s">
         <v>48</v>
       </c>
       <c r="R135" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -14732,13 +14735,13 @@
         <v>1895</v>
       </c>
       <c r="O136" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="Q136" t="s">
         <v>40</v>
       </c>
       <c r="R136" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -14776,19 +14779,19 @@
         <v>1896</v>
       </c>
       <c r="N137" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="O137" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="P137" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="Q137" t="s">
         <v>52</v>
       </c>
       <c r="R137" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -14826,22 +14829,22 @@
         <v>1897</v>
       </c>
       <c r="M138" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="N138" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="O138" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="P138" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="Q138" t="s">
         <v>48</v>
       </c>
       <c r="R138" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -14879,22 +14882,22 @@
         <v>1898</v>
       </c>
       <c r="M139" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="N139" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="O139" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="P139" t="s">
-        <v>2415</v>
+        <v>2416</v>
       </c>
       <c r="Q139" t="s">
         <v>68</v>
       </c>
       <c r="R139" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -14932,22 +14935,22 @@
         <v>1899</v>
       </c>
       <c r="M140" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="N140" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="O140" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="P140" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
       <c r="Q140" t="s">
         <v>43</v>
       </c>
       <c r="R140" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -14985,22 +14988,22 @@
         <v>1900</v>
       </c>
       <c r="M141" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="N141" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="O141" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="P141" t="s">
-        <v>2417</v>
+        <v>2418</v>
       </c>
       <c r="Q141" t="s">
         <v>69</v>
       </c>
       <c r="R141" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -15038,22 +15041,22 @@
         <v>1901</v>
       </c>
       <c r="M142" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="N142" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="O142" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="P142" t="s">
-        <v>2418</v>
+        <v>2419</v>
       </c>
       <c r="Q142" t="s">
         <v>54</v>
       </c>
       <c r="R142" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -15091,22 +15094,22 @@
         <v>1902</v>
       </c>
       <c r="M143" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="N143" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="O143" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
       <c r="P143" t="s">
-        <v>2419</v>
+        <v>2420</v>
       </c>
       <c r="Q143" t="s">
         <v>64</v>
       </c>
       <c r="R143" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -15144,22 +15147,22 @@
         <v>1903</v>
       </c>
       <c r="M144" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="N144" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="O144" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="P144" t="s">
-        <v>2420</v>
+        <v>2421</v>
       </c>
       <c r="Q144" t="s">
         <v>50</v>
       </c>
       <c r="R144" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -15197,22 +15200,22 @@
         <v>1903</v>
       </c>
       <c r="M145" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="N145" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="O145" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="P145" t="s">
-        <v>2420</v>
+        <v>2421</v>
       </c>
       <c r="Q145" t="s">
         <v>29</v>
       </c>
       <c r="R145" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -15250,22 +15253,22 @@
         <v>1904</v>
       </c>
       <c r="M146" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="N146" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="O146" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="P146" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="Q146" t="s">
         <v>43</v>
       </c>
       <c r="R146" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -15303,22 +15306,22 @@
         <v>1905</v>
       </c>
       <c r="M147" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="N147" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="O147" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="P147" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
       <c r="Q147" t="s">
         <v>45</v>
       </c>
       <c r="R147" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -15356,22 +15359,22 @@
         <v>1906</v>
       </c>
       <c r="M148" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="N148" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="O148" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="P148" t="s">
-        <v>2422</v>
+        <v>2423</v>
       </c>
       <c r="Q148" t="s">
         <v>73</v>
       </c>
       <c r="R148" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -15409,22 +15412,22 @@
         <v>1907</v>
       </c>
       <c r="M149" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="N149" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="O149" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="P149" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
       <c r="Q149" t="s">
         <v>68</v>
       </c>
       <c r="R149" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -15462,22 +15465,22 @@
         <v>1908</v>
       </c>
       <c r="M150" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="N150" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="O150" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="P150" t="s">
-        <v>2423</v>
+        <v>2424</v>
       </c>
       <c r="Q150" t="s">
         <v>49</v>
       </c>
       <c r="R150" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -15515,22 +15518,22 @@
         <v>1899</v>
       </c>
       <c r="M151" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="N151" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="O151" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="P151" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
       <c r="Q151" t="s">
         <v>67</v>
       </c>
       <c r="R151" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -15568,22 +15571,22 @@
         <v>1909</v>
       </c>
       <c r="M152" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="N152" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="O152" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="P152" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
       <c r="Q152" t="s">
         <v>120</v>
       </c>
       <c r="R152" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -15621,16 +15624,16 @@
         <v>1910</v>
       </c>
       <c r="O153" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="P153" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="Q153" t="s">
         <v>28</v>
       </c>
       <c r="R153" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -15668,22 +15671,22 @@
         <v>1911</v>
       </c>
       <c r="M154" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="N154" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="O154" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="P154" t="s">
-        <v>2424</v>
+        <v>2425</v>
       </c>
       <c r="Q154" t="s">
         <v>59</v>
       </c>
       <c r="R154" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -15721,22 +15724,22 @@
         <v>1912</v>
       </c>
       <c r="M155" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="N155" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="O155" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="P155" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="Q155" t="s">
         <v>57</v>
       </c>
       <c r="R155" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -15774,22 +15777,22 @@
         <v>1913</v>
       </c>
       <c r="M156" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="N156" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="O156" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="P156" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
       <c r="Q156" t="s">
         <v>79</v>
       </c>
       <c r="R156" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -15827,22 +15830,22 @@
         <v>1914</v>
       </c>
       <c r="M157" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="N157" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="O157" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="P157" t="s">
-        <v>2425</v>
+        <v>2426</v>
       </c>
       <c r="Q157" t="s">
         <v>49</v>
       </c>
       <c r="R157" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -15880,22 +15883,22 @@
         <v>1915</v>
       </c>
       <c r="M158" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="N158" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="O158" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="P158" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="Q158" t="s">
         <v>63</v>
       </c>
       <c r="R158" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -15933,22 +15936,22 @@
         <v>1916</v>
       </c>
       <c r="M159" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="N159" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="O159" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="P159" t="s">
-        <v>2427</v>
+        <v>2428</v>
       </c>
       <c r="Q159" t="s">
         <v>40</v>
       </c>
       <c r="R159" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -15986,22 +15989,22 @@
         <v>1917</v>
       </c>
       <c r="M160" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="N160" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="O160" t="s">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="P160" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="Q160" t="s">
         <v>27</v>
       </c>
       <c r="R160" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -16039,22 +16042,22 @@
         <v>1917</v>
       </c>
       <c r="M161" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="N161" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="O161" t="s">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="P161" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="Q161" t="s">
         <v>33</v>
       </c>
       <c r="R161" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -16092,16 +16095,16 @@
         <v>1918</v>
       </c>
       <c r="N162" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="O162" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="Q162" t="s">
         <v>56</v>
       </c>
       <c r="R162" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -16139,16 +16142,16 @@
         <v>1918</v>
       </c>
       <c r="N163" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="O163" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="Q163" t="s">
         <v>54</v>
       </c>
       <c r="R163" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -16186,16 +16189,16 @@
         <v>1919</v>
       </c>
       <c r="M164" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="N164" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="O164" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="P164" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -16233,22 +16236,22 @@
         <v>1920</v>
       </c>
       <c r="M165" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="N165" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="O165" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="P165" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="Q165" t="s">
         <v>61</v>
       </c>
       <c r="R165" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -16286,22 +16289,22 @@
         <v>1874</v>
       </c>
       <c r="M166" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="N166" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="O166" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="P166" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="Q166" t="s">
         <v>65</v>
       </c>
       <c r="R166" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -16339,16 +16342,16 @@
         <v>1921</v>
       </c>
       <c r="M167" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="N167" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="O167" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="P167" t="s">
-        <v>2418</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -16386,22 +16389,22 @@
         <v>1922</v>
       </c>
       <c r="M168" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="N168" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="O168" t="s">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="P168" t="s">
-        <v>2431</v>
+        <v>2432</v>
       </c>
       <c r="Q168" t="s">
         <v>67</v>
       </c>
       <c r="R168" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -16439,22 +16442,22 @@
         <v>1923</v>
       </c>
       <c r="M169" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="N169" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="O169" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="P169" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="Q169" t="s">
         <v>51</v>
       </c>
       <c r="R169" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -16492,22 +16495,22 @@
         <v>1924</v>
       </c>
       <c r="M170" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="N170" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="O170" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="P170" t="s">
-        <v>2432</v>
+        <v>2433</v>
       </c>
       <c r="Q170" t="s">
         <v>54</v>
       </c>
       <c r="R170" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -16545,22 +16548,22 @@
         <v>1925</v>
       </c>
       <c r="M171" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="N171" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="O171" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="P171" t="s">
-        <v>2433</v>
+        <v>2434</v>
       </c>
       <c r="Q171" t="s">
         <v>62</v>
       </c>
       <c r="R171" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -16598,22 +16601,22 @@
         <v>1925</v>
       </c>
       <c r="M172" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="N172" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="O172" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="P172" t="s">
-        <v>2433</v>
+        <v>2434</v>
       </c>
       <c r="Q172" t="s">
         <v>61</v>
       </c>
       <c r="R172" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -16651,22 +16654,22 @@
         <v>1926</v>
       </c>
       <c r="M173" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="N173" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="O173" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="P173" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="Q173" t="s">
         <v>63</v>
       </c>
       <c r="R173" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -16704,22 +16707,22 @@
         <v>1925</v>
       </c>
       <c r="M174" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="N174" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="O174" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="P174" t="s">
-        <v>2433</v>
+        <v>2434</v>
       </c>
       <c r="Q174" t="s">
         <v>104</v>
       </c>
       <c r="R174" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -16757,22 +16760,22 @@
         <v>1927</v>
       </c>
       <c r="M175" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="N175" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="O175" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="P175" t="s">
-        <v>2434</v>
+        <v>2435</v>
       </c>
       <c r="Q175" t="s">
         <v>48</v>
       </c>
       <c r="R175" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -16810,16 +16813,16 @@
         <v>1928</v>
       </c>
       <c r="O176" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="P176" t="s">
-        <v>2435</v>
+        <v>2436</v>
       </c>
       <c r="Q176" t="s">
         <v>69</v>
       </c>
       <c r="R176" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -16857,22 +16860,22 @@
         <v>1929</v>
       </c>
       <c r="M177" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="N177" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="O177" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="P177" t="s">
-        <v>2436</v>
+        <v>2437</v>
       </c>
       <c r="Q177" t="s">
         <v>61</v>
       </c>
       <c r="R177" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -16910,22 +16913,22 @@
         <v>1930</v>
       </c>
       <c r="M178" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="N178" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="O178" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="P178" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="Q178" t="s">
         <v>148</v>
       </c>
       <c r="R178" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -16960,22 +16963,22 @@
         <v>1918</v>
       </c>
       <c r="M179" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="N179" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="O179" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="P179" t="s">
-        <v>2437</v>
+        <v>2438</v>
       </c>
       <c r="Q179" t="s">
         <v>43</v>
       </c>
       <c r="R179" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -17013,22 +17016,22 @@
         <v>1931</v>
       </c>
       <c r="M180" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="N180" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="O180" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="P180" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="Q180" t="s">
         <v>40</v>
       </c>
       <c r="R180" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -17066,22 +17069,22 @@
         <v>1932</v>
       </c>
       <c r="M181" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="N181" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="O181" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="P181" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
       <c r="Q181" t="s">
         <v>55</v>
       </c>
       <c r="R181" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -17119,22 +17122,22 @@
         <v>1933</v>
       </c>
       <c r="M182" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="N182" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="O182" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="P182" t="s">
-        <v>2438</v>
+        <v>2439</v>
       </c>
       <c r="Q182" t="s">
         <v>109</v>
       </c>
       <c r="R182" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -17172,22 +17175,22 @@
         <v>1934</v>
       </c>
       <c r="M183" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="N183" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="O183" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="P183" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="Q183" t="s">
         <v>56</v>
       </c>
       <c r="R183" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -17225,22 +17228,22 @@
         <v>1935</v>
       </c>
       <c r="M184" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="N184" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="O184" t="s">
-        <v>2342</v>
+        <v>2343</v>
       </c>
       <c r="P184" t="s">
-        <v>2439</v>
+        <v>2440</v>
       </c>
       <c r="Q184" t="s">
         <v>62</v>
       </c>
       <c r="R184" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -17278,22 +17281,22 @@
         <v>1936</v>
       </c>
       <c r="M185" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="N185" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="O185" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="P185" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="Q185" t="s">
         <v>71</v>
       </c>
       <c r="R185" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -17331,22 +17334,22 @@
         <v>1937</v>
       </c>
       <c r="M186" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="N186" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="O186" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="P186" t="s">
-        <v>2436</v>
+        <v>2437</v>
       </c>
       <c r="Q186" t="s">
         <v>61</v>
       </c>
       <c r="R186" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -17384,16 +17387,16 @@
         <v>1938</v>
       </c>
       <c r="O187" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="P187" t="s">
-        <v>2367</v>
+        <v>2368</v>
       </c>
       <c r="Q187" t="s">
         <v>39</v>
       </c>
       <c r="R187" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -17431,22 +17434,22 @@
         <v>1939</v>
       </c>
       <c r="M188" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="N188" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="O188" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="P188" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="Q188" t="s">
         <v>52</v>
       </c>
       <c r="R188" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -17484,22 +17487,22 @@
         <v>1940</v>
       </c>
       <c r="M189" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="N189" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="O189" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="P189" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="Q189" t="s">
         <v>120</v>
       </c>
       <c r="R189" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -17537,22 +17540,22 @@
         <v>1941</v>
       </c>
       <c r="M190" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="N190" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="O190" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="P190" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="Q190" t="s">
         <v>39</v>
       </c>
       <c r="R190" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -17590,22 +17593,22 @@
         <v>1942</v>
       </c>
       <c r="M191" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="N191" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="O191" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="P191" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="Q191" t="s">
         <v>53</v>
       </c>
       <c r="R191" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -17643,16 +17646,16 @@
         <v>1943</v>
       </c>
       <c r="M192" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="N192" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="O192" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="P192" t="s">
-        <v>2418</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -17690,22 +17693,22 @@
         <v>1944</v>
       </c>
       <c r="M193" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="N193" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="O193" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="P193" t="s">
-        <v>2391</v>
+        <v>2392</v>
       </c>
       <c r="Q193" t="s">
         <v>71</v>
       </c>
       <c r="R193" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -17743,22 +17746,22 @@
         <v>1945</v>
       </c>
       <c r="M194" t="s">
+        <v>2157</v>
+      </c>
+      <c r="N194" t="s">
         <v>2156</v>
       </c>
-      <c r="N194" t="s">
-        <v>2155</v>
-      </c>
       <c r="O194" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="P194" t="s">
-        <v>2391</v>
+        <v>2392</v>
       </c>
       <c r="Q194" t="s">
         <v>68</v>
       </c>
       <c r="R194" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -17796,22 +17799,22 @@
         <v>1946</v>
       </c>
       <c r="M195" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="N195" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="O195" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="P195" t="s">
-        <v>2441</v>
+        <v>2442</v>
       </c>
       <c r="Q195" t="s">
         <v>59</v>
       </c>
       <c r="R195" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -17849,22 +17852,22 @@
         <v>1947</v>
       </c>
       <c r="M196" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="N196" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="O196" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="P196" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="Q196" t="s">
         <v>41</v>
       </c>
       <c r="R196" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -17902,22 +17905,22 @@
         <v>1947</v>
       </c>
       <c r="M197" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="N197" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="O197" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="P197" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="Q197" t="s">
         <v>62</v>
       </c>
       <c r="R197" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -17955,22 +17958,22 @@
         <v>1948</v>
       </c>
       <c r="M198" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="N198" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="O198" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="P198" t="s">
-        <v>2442</v>
+        <v>2443</v>
       </c>
       <c r="Q198" t="s">
         <v>57</v>
       </c>
       <c r="R198" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -18008,22 +18011,22 @@
         <v>1949</v>
       </c>
       <c r="M199" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="N199" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="O199" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="P199" t="s">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="Q199" t="s">
         <v>42</v>
       </c>
       <c r="R199" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -18061,19 +18064,19 @@
         <v>1936</v>
       </c>
       <c r="M200" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="N200" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="O200" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="P200" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="R200" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -18111,22 +18114,22 @@
         <v>1936</v>
       </c>
       <c r="M201" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="N201" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="O201" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="P201" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="Q201" t="s">
         <v>39</v>
       </c>
       <c r="R201" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -18164,22 +18167,22 @@
         <v>1936</v>
       </c>
       <c r="M202" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="N202" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="O202" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="P202" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="Q202" t="s">
         <v>66</v>
       </c>
       <c r="R202" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -18217,22 +18220,22 @@
         <v>1936</v>
       </c>
       <c r="M203" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="N203" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="O203" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="P203" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="Q203" t="s">
         <v>63</v>
       </c>
       <c r="R203" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -18270,19 +18273,19 @@
         <v>1950</v>
       </c>
       <c r="N204" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="O204" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="P204" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
       <c r="Q204" t="s">
         <v>52</v>
       </c>
       <c r="R204" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -18320,22 +18323,22 @@
         <v>1936</v>
       </c>
       <c r="M205" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="N205" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="O205" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="P205" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="Q205" t="s">
         <v>163</v>
       </c>
       <c r="R205" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -18373,22 +18376,22 @@
         <v>1936</v>
       </c>
       <c r="M206" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="N206" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="O206" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="P206" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="Q206" t="s">
         <v>71</v>
       </c>
       <c r="R206" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -18426,19 +18429,19 @@
         <v>1936</v>
       </c>
       <c r="M207" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="N207" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="O207" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="P207" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="R207" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -18476,22 +18479,22 @@
         <v>1951</v>
       </c>
       <c r="M208" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="N208" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="O208" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="P208" t="s">
-        <v>2443</v>
+        <v>2444</v>
       </c>
       <c r="Q208" t="s">
         <v>104</v>
       </c>
       <c r="R208" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -18529,22 +18532,22 @@
         <v>1952</v>
       </c>
       <c r="M209" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="N209" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="O209" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="P209" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="Q209" t="s">
         <v>59</v>
       </c>
       <c r="R209" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -18582,22 +18585,22 @@
         <v>1953</v>
       </c>
       <c r="M210" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="N210" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="O210" t="s">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="P210" t="s">
-        <v>2431</v>
+        <v>2432</v>
       </c>
       <c r="Q210" t="s">
         <v>46</v>
       </c>
       <c r="R210" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -18635,22 +18638,22 @@
         <v>1954</v>
       </c>
       <c r="M211" t="s">
+        <v>2157</v>
+      </c>
+      <c r="N211" t="s">
         <v>2156</v>
       </c>
-      <c r="N211" t="s">
-        <v>2155</v>
-      </c>
       <c r="O211" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="P211" t="s">
-        <v>2391</v>
+        <v>2392</v>
       </c>
       <c r="Q211" t="s">
         <v>61</v>
       </c>
       <c r="R211" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -18688,22 +18691,22 @@
         <v>1955</v>
       </c>
       <c r="M212" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="N212" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="O212" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="P212" t="s">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="Q212" t="s">
         <v>43</v>
       </c>
       <c r="R212" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -18741,22 +18744,22 @@
         <v>1947</v>
       </c>
       <c r="M213" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="N213" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="O213" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="P213" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="Q213" t="s">
         <v>34</v>
       </c>
       <c r="R213" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -18794,22 +18797,22 @@
         <v>1956</v>
       </c>
       <c r="M214" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="N214" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="O214" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="P214" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
       <c r="Q214" t="s">
         <v>74</v>
       </c>
       <c r="R214" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -18847,22 +18850,22 @@
         <v>1957</v>
       </c>
       <c r="M215" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="N215" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="O215" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="P215" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="Q215" t="s">
         <v>26</v>
       </c>
       <c r="R215" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -18900,22 +18903,22 @@
         <v>1958</v>
       </c>
       <c r="M216" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="N216" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="O216" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="P216" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="Q216" t="s">
         <v>68</v>
       </c>
       <c r="R216" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -18953,22 +18956,22 @@
         <v>1958</v>
       </c>
       <c r="M217" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="N217" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="O217" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="P217" t="s">
-        <v>2442</v>
+        <v>2443</v>
       </c>
       <c r="Q217" t="s">
         <v>62</v>
       </c>
       <c r="R217" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -19006,22 +19009,22 @@
         <v>1959</v>
       </c>
       <c r="M218" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="N218" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="O218" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="P218" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="Q218" t="s">
         <v>69</v>
       </c>
       <c r="R218" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -19059,22 +19062,22 @@
         <v>1936</v>
       </c>
       <c r="M219" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="N219" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="O219" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="P219" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="Q219" t="s">
         <v>109</v>
       </c>
       <c r="R219" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -19112,22 +19115,22 @@
         <v>1960</v>
       </c>
       <c r="M220" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="N220" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="O220" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="P220" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="Q220" t="s">
         <v>58</v>
       </c>
       <c r="R220" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -19165,22 +19168,22 @@
         <v>1936</v>
       </c>
       <c r="M221" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="N221" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="O221" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="P221" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="Q221" t="s">
         <v>78</v>
       </c>
       <c r="R221" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -19218,22 +19221,22 @@
         <v>1936</v>
       </c>
       <c r="M222" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="N222" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="O222" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="P222" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="Q222" t="s">
         <v>106</v>
       </c>
       <c r="R222" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -19271,22 +19274,22 @@
         <v>1936</v>
       </c>
       <c r="M223" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="N223" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="O223" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="P223" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="Q223" t="s">
         <v>78</v>
       </c>
       <c r="R223" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -19324,22 +19327,22 @@
         <v>1936</v>
       </c>
       <c r="M224" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="N224" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="O224" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="P224" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="Q224" t="s">
         <v>79</v>
       </c>
       <c r="R224" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -19377,22 +19380,22 @@
         <v>1961</v>
       </c>
       <c r="M225" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="N225" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="O225" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="P225" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
       <c r="Q225" t="s">
         <v>65</v>
       </c>
       <c r="R225" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -19430,22 +19433,22 @@
         <v>1962</v>
       </c>
       <c r="M226" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="N226" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="O226" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="P226" t="s">
-        <v>2445</v>
+        <v>2446</v>
       </c>
       <c r="Q226" t="s">
         <v>58</v>
       </c>
       <c r="R226" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -19483,19 +19486,19 @@
         <v>1936</v>
       </c>
       <c r="M227" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="N227" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="O227" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="P227" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="R227" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -19533,13 +19536,13 @@
         <v>1963</v>
       </c>
       <c r="O228" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="Q228" t="s">
         <v>58</v>
       </c>
       <c r="R228" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -19577,22 +19580,22 @@
         <v>1936</v>
       </c>
       <c r="M229" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="N229" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="O229" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="P229" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="Q229" t="s">
         <v>61</v>
       </c>
       <c r="R229" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -19630,22 +19633,22 @@
         <v>1964</v>
       </c>
       <c r="M230" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="N230" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="O230" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="P230" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
       <c r="Q230" t="s">
         <v>29</v>
       </c>
       <c r="R230" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -19683,22 +19686,22 @@
         <v>1965</v>
       </c>
       <c r="M231" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="N231" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="O231" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="P231" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="Q231" t="s">
         <v>70</v>
       </c>
       <c r="R231" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -19736,22 +19739,22 @@
         <v>1966</v>
       </c>
       <c r="M232" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="N232" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="O232" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="P232" t="s">
-        <v>2446</v>
+        <v>2447</v>
       </c>
       <c r="Q232" t="s">
         <v>56</v>
       </c>
       <c r="R232" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -19789,22 +19792,22 @@
         <v>1967</v>
       </c>
       <c r="M233" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="N233" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="O233" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="P233" t="s">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="Q233" t="s">
         <v>54</v>
       </c>
       <c r="R233" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -19842,19 +19845,19 @@
         <v>1968</v>
       </c>
       <c r="M234" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="N234" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="O234" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="P234" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
       <c r="R234" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -19892,22 +19895,22 @@
         <v>1969</v>
       </c>
       <c r="M235" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="N235" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="O235" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="P235" t="s">
-        <v>2446</v>
+        <v>2447</v>
       </c>
       <c r="Q235" t="s">
         <v>74</v>
       </c>
       <c r="R235" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -19945,22 +19948,22 @@
         <v>1970</v>
       </c>
       <c r="M236" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="N236" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="O236" t="s">
-        <v>2349</v>
+        <v>2350</v>
       </c>
       <c r="P236" t="s">
-        <v>2447</v>
+        <v>2448</v>
       </c>
       <c r="Q236" t="s">
         <v>64</v>
       </c>
       <c r="R236" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -19998,22 +20001,22 @@
         <v>1971</v>
       </c>
       <c r="M237" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="N237" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="O237" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="P237" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="Q237" t="s">
         <v>69</v>
       </c>
       <c r="R237" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -20051,19 +20054,19 @@
         <v>1972</v>
       </c>
       <c r="N238" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="O238" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="P238" t="s">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="Q238" t="s">
         <v>65</v>
       </c>
       <c r="R238" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -20101,22 +20104,22 @@
         <v>1973</v>
       </c>
       <c r="M239" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="N239" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="O239" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="P239" t="s">
-        <v>2446</v>
+        <v>2447</v>
       </c>
       <c r="Q239" t="s">
         <v>73</v>
       </c>
       <c r="R239" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -20154,19 +20157,19 @@
         <v>1974</v>
       </c>
       <c r="M240" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="N240" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="O240" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="P240" t="s">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="R240" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -20204,19 +20207,19 @@
         <v>1975</v>
       </c>
       <c r="M241" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="N241" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="O241" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="P241" t="s">
-        <v>2441</v>
+        <v>2442</v>
       </c>
       <c r="R241" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -20254,19 +20257,19 @@
         <v>1976</v>
       </c>
       <c r="M242" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="N242" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="O242" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="P242" t="s">
-        <v>2450</v>
+        <v>2451</v>
       </c>
       <c r="R242" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -20304,22 +20307,22 @@
         <v>1977</v>
       </c>
       <c r="M243" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="N243" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="O243" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="P243" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="Q243" t="s">
         <v>57</v>
       </c>
       <c r="R243" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -20344,6 +20347,15 @@
       <c r="I244" t="s">
         <v>1614</v>
       </c>
+      <c r="K244" s="2" t="s">
+        <v>1978</v>
+      </c>
+      <c r="Q244" t="s">
+        <v>64</v>
+      </c>
+      <c r="R244" t="s">
+        <v>2480</v>
+      </c>
     </row>
     <row r="245" spans="1:18">
       <c r="A245" t="s">
@@ -20377,16 +20389,16 @@
         <v>1780</v>
       </c>
       <c r="K245" s="2" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="N245" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="O245" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="P245" t="s">
-        <v>2451</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -20421,25 +20433,25 @@
         <v>1780</v>
       </c>
       <c r="K246" s="2" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="M246" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="N246" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="O246" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="P246" t="s">
-        <v>2446</v>
+        <v>2447</v>
       </c>
       <c r="Q246" t="s">
         <v>112</v>
       </c>
       <c r="R246" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -20474,19 +20486,19 @@
         <v>1780</v>
       </c>
       <c r="K247" s="2" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="M247" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="N247" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="O247" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="P247" t="s">
-        <v>2451</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -20524,22 +20536,22 @@
         <v>1959</v>
       </c>
       <c r="M248" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="N248" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="O248" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="P248" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="Q248" t="s">
         <v>58</v>
       </c>
       <c r="R248" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -20574,19 +20586,19 @@
         <v>1780</v>
       </c>
       <c r="K249" s="2" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="M249" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="N249" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="O249" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="P249" t="s">
-        <v>2452</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -20621,25 +20633,25 @@
         <v>1780</v>
       </c>
       <c r="K250" s="2" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="M250" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="N250" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="O250" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="P250" t="s">
-        <v>2452</v>
+        <v>2453</v>
       </c>
       <c r="Q250" t="s">
         <v>165</v>
       </c>
       <c r="R250" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -20674,25 +20686,25 @@
         <v>1781</v>
       </c>
       <c r="K251" s="2" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="M251" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="N251" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="O251" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="P251" t="s">
-        <v>2424</v>
+        <v>2425</v>
       </c>
       <c r="Q251" t="s">
         <v>55</v>
       </c>
       <c r="R251" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -20727,25 +20739,25 @@
         <v>1780</v>
       </c>
       <c r="K252" s="2" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="M252" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="N252" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="O252" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="P252" t="s">
-        <v>2452</v>
+        <v>2453</v>
       </c>
       <c r="Q252" t="s">
         <v>70</v>
       </c>
       <c r="R252" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -20780,25 +20792,25 @@
         <v>1734</v>
       </c>
       <c r="K253" s="2" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="M253" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="N253" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="O253" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="P253" t="s">
-        <v>2453</v>
+        <v>2454</v>
       </c>
       <c r="Q253" t="s">
         <v>57</v>
       </c>
       <c r="R253" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -20833,22 +20845,22 @@
         <v>1740</v>
       </c>
       <c r="K254" s="2" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="M254" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="N254" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="O254" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="P254" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="R254" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -20883,22 +20895,22 @@
         <v>1740</v>
       </c>
       <c r="K255" s="2" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="M255" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="N255" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="O255" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="P255" t="s">
-        <v>2454</v>
+        <v>2455</v>
       </c>
       <c r="R255" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -20933,22 +20945,22 @@
         <v>1740</v>
       </c>
       <c r="K256" s="2" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="M256" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="N256" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="O256" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="P256" t="s">
-        <v>2450</v>
+        <v>2451</v>
       </c>
       <c r="R256" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -20983,22 +20995,22 @@
         <v>1740</v>
       </c>
       <c r="K257" s="2" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="M257" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="N257" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="O257" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="P257" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="R257" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -21033,22 +21045,22 @@
         <v>1740</v>
       </c>
       <c r="K258" s="2" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="M258" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="N258" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="O258" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="P258" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="R258" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -21083,22 +21095,22 @@
         <v>1740</v>
       </c>
       <c r="K259" s="2" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="M259" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="N259" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="O259" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="P259" t="s">
-        <v>2454</v>
+        <v>2455</v>
       </c>
       <c r="R259" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -21133,22 +21145,22 @@
         <v>1740</v>
       </c>
       <c r="K260" s="2" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="M260" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="N260" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="O260" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="P260" t="s">
-        <v>2454</v>
+        <v>2455</v>
       </c>
       <c r="R260" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -21183,13 +21195,13 @@
         <v>1740</v>
       </c>
       <c r="K261" s="2" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="O261" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="R261" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -21224,22 +21236,22 @@
         <v>1740</v>
       </c>
       <c r="K262" s="2" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="M262" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="N262" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="O262" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="P262" t="s">
-        <v>2454</v>
+        <v>2455</v>
       </c>
       <c r="R262" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -21274,25 +21286,25 @@
         <v>1780</v>
       </c>
       <c r="K263" s="2" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="M263" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="N263" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="O263" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="P263" t="s">
-        <v>2455</v>
+        <v>2456</v>
       </c>
       <c r="Q263" t="s">
         <v>54</v>
       </c>
       <c r="R263" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -21327,25 +21339,25 @@
         <v>1780</v>
       </c>
       <c r="K264" s="2" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="M264" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="N264" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="O264" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="P264" t="s">
-        <v>2455</v>
+        <v>2456</v>
       </c>
       <c r="Q264" t="s">
         <v>66</v>
       </c>
       <c r="R264" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -21380,22 +21392,22 @@
         <v>1740</v>
       </c>
       <c r="K265" s="2" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="M265" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="N265" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="O265" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="P265" t="s">
-        <v>2454</v>
+        <v>2455</v>
       </c>
       <c r="R265" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -21430,25 +21442,25 @@
         <v>1783</v>
       </c>
       <c r="K266" s="2" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="M266" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="N266" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="O266" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="P266" t="s">
-        <v>2456</v>
+        <v>2457</v>
       </c>
       <c r="Q266" t="s">
         <v>59</v>
       </c>
       <c r="R266" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -21483,25 +21495,25 @@
         <v>1784</v>
       </c>
       <c r="K267" s="2" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="M267" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="N267" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="O267" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="P267" t="s">
-        <v>2457</v>
+        <v>2458</v>
       </c>
       <c r="Q267" t="s">
         <v>120</v>
       </c>
       <c r="R267" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -21536,25 +21548,25 @@
         <v>1764</v>
       </c>
       <c r="K268" s="2" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="M268" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="N268" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="O268" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="P268" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="Q268" t="s">
         <v>68</v>
       </c>
       <c r="R268" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -21589,25 +21601,25 @@
         <v>1781</v>
       </c>
       <c r="K269" s="2" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="M269" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="N269" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="O269" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="P269" t="s">
-        <v>2458</v>
+        <v>2459</v>
       </c>
       <c r="Q269" t="s">
         <v>64</v>
       </c>
       <c r="R269" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -21642,22 +21654,22 @@
         <v>1740</v>
       </c>
       <c r="K270" s="2" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="M270" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="N270" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="O270" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="P270" t="s">
-        <v>2454</v>
+        <v>2455</v>
       </c>
       <c r="R270" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -21692,25 +21704,25 @@
         <v>1785</v>
       </c>
       <c r="K271" s="2" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="M271" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="N271" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="O271" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="P271" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
       <c r="Q271" t="s">
         <v>38</v>
       </c>
       <c r="R271" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -21745,25 +21757,25 @@
         <v>1773</v>
       </c>
       <c r="K272" s="2" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="M272" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="N272" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="O272" t="s">
-        <v>2354</v>
+        <v>2355</v>
       </c>
       <c r="P272" t="s">
-        <v>2459</v>
+        <v>2460</v>
       </c>
       <c r="Q272" t="s">
         <v>104</v>
       </c>
       <c r="R272" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -21798,25 +21810,25 @@
         <v>1786</v>
       </c>
       <c r="K273" s="2" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="M273" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="N273" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="O273" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="P273" t="s">
-        <v>2452</v>
+        <v>2453</v>
       </c>
       <c r="Q273" t="s">
         <v>107</v>
       </c>
       <c r="R273" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -21851,25 +21863,25 @@
         <v>1760</v>
       </c>
       <c r="K274" s="2" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="M274" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="N274" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="O274" t="s">
-        <v>2355</v>
+        <v>2356</v>
       </c>
       <c r="P274" t="s">
-        <v>2460</v>
+        <v>2461</v>
       </c>
       <c r="Q274" t="s">
         <v>54</v>
       </c>
       <c r="R274" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -21904,25 +21916,25 @@
         <v>1744</v>
       </c>
       <c r="K275" s="2" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="M275" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="N275" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="O275" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="P275" t="s">
-        <v>2456</v>
+        <v>2457</v>
       </c>
       <c r="Q275" t="s">
         <v>59</v>
       </c>
       <c r="R275" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -21957,25 +21969,25 @@
         <v>1787</v>
       </c>
       <c r="K276" s="2" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="M276" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="N276" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="O276" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="P276" t="s">
-        <v>2433</v>
+        <v>2434</v>
       </c>
       <c r="Q276" t="s">
         <v>73</v>
       </c>
       <c r="R276" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -22010,22 +22022,22 @@
         <v>1781</v>
       </c>
       <c r="K277" s="2" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="M277" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="N277" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="O277" t="s">
-        <v>2356</v>
+        <v>2357</v>
       </c>
       <c r="P277" t="s">
-        <v>2461</v>
+        <v>2462</v>
       </c>
       <c r="R277" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -22060,25 +22072,25 @@
         <v>1770</v>
       </c>
       <c r="K278" s="2" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="M278" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="N278" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="O278" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="P278" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
       <c r="Q278" t="s">
         <v>66</v>
       </c>
       <c r="R278" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -22113,22 +22125,22 @@
         <v>1779</v>
       </c>
       <c r="K279" s="2" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="N279" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="O279" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="P279" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="Q279" t="s">
         <v>69</v>
       </c>
       <c r="R279" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -22163,22 +22175,22 @@
         <v>1779</v>
       </c>
       <c r="K280" s="2" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="N280" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="O280" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="P280" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="Q280" t="s">
         <v>48</v>
       </c>
       <c r="R280" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -22213,25 +22225,25 @@
         <v>1779</v>
       </c>
       <c r="K281" s="2" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="M281" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="N281" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="O281" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="P281" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="Q281" t="s">
         <v>53</v>
       </c>
       <c r="R281" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -22266,22 +22278,22 @@
         <v>1740</v>
       </c>
       <c r="K282" s="2" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="M282" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="N282" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="O282" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="P282" t="s">
-        <v>2454</v>
+        <v>2455</v>
       </c>
       <c r="R282" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -22316,22 +22328,22 @@
         <v>1784</v>
       </c>
       <c r="K283" s="2" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="M283" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="N283" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="O283" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="Q283" t="s">
         <v>39</v>
       </c>
       <c r="R283" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -22366,25 +22378,25 @@
         <v>1735</v>
       </c>
       <c r="K284" s="2" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="M284" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="N284" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="O284" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="P284" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="Q284" t="s">
         <v>26</v>
       </c>
       <c r="R284" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -22419,25 +22431,25 @@
         <v>1786</v>
       </c>
       <c r="K285" s="2" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="M285" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="N285" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="O285" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="P285" t="s">
-        <v>2446</v>
+        <v>2447</v>
       </c>
       <c r="Q285" t="s">
         <v>54</v>
       </c>
       <c r="R285" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -22472,22 +22484,22 @@
         <v>1784</v>
       </c>
       <c r="K286" s="2" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="M286" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="N286" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="O286" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="Q286" t="s">
         <v>39</v>
       </c>
       <c r="R286" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -22522,22 +22534,22 @@
         <v>1784</v>
       </c>
       <c r="K287" s="2" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="M287" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="N287" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="O287" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="Q287" t="s">
         <v>53</v>
       </c>
       <c r="R287" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -22572,25 +22584,25 @@
         <v>1735</v>
       </c>
       <c r="K288" s="2" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="M288" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="N288" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="O288" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="P288" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="Q288" t="s">
         <v>109</v>
       </c>
       <c r="R288" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -22625,22 +22637,22 @@
         <v>1784</v>
       </c>
       <c r="K289" s="2" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="M289" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="N289" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="O289" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="Q289" t="s">
         <v>73</v>
       </c>
       <c r="R289" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -22675,22 +22687,22 @@
         <v>1784</v>
       </c>
       <c r="K290" s="2" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="M290" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="N290" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="O290" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="Q290" t="s">
         <v>53</v>
       </c>
       <c r="R290" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -22725,25 +22737,25 @@
         <v>1735</v>
       </c>
       <c r="K291" s="2" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="M291" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="N291" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="O291" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="P291" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="Q291" t="s">
         <v>52</v>
       </c>
       <c r="R291" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -22778,25 +22790,25 @@
         <v>1788</v>
       </c>
       <c r="K292" s="2" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="M292" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="N292" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="O292" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="P292" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="Q292" t="s">
         <v>57</v>
       </c>
       <c r="R292" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -22831,25 +22843,25 @@
         <v>1773</v>
       </c>
       <c r="K293" s="2" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="M293" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="N293" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="O293" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="P293" t="s">
-        <v>2433</v>
+        <v>2434</v>
       </c>
       <c r="Q293" t="s">
         <v>69</v>
       </c>
       <c r="R293" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -22884,22 +22896,22 @@
         <v>1784</v>
       </c>
       <c r="K294" s="2" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="M294" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="N294" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="O294" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="Q294" t="s">
         <v>45</v>
       </c>
       <c r="R294" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -22934,25 +22946,25 @@
         <v>1736</v>
       </c>
       <c r="K295" s="2" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="M295" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="N295" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="O295" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="P295" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
       <c r="Q295" t="s">
         <v>113</v>
       </c>
       <c r="R295" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -22987,25 +22999,25 @@
         <v>1787</v>
       </c>
       <c r="K296" s="2" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="M296" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="N296" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="O296" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="P296" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="Q296" t="s">
         <v>57</v>
       </c>
       <c r="R296" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -23040,25 +23052,25 @@
         <v>1736</v>
       </c>
       <c r="K297" s="2" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M297" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="N297" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="O297" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="P297" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
       <c r="Q297" t="s">
         <v>64</v>
       </c>
       <c r="R297" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -23093,25 +23105,25 @@
         <v>1736</v>
       </c>
       <c r="K298" s="2" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M298" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="N298" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="O298" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="P298" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
       <c r="Q298" t="s">
         <v>31</v>
       </c>
       <c r="R298" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -23146,25 +23158,25 @@
         <v>1787</v>
       </c>
       <c r="K299" s="2" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="M299" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="N299" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="O299" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="P299" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="Q299" t="s">
         <v>39</v>
       </c>
       <c r="R299" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -23199,25 +23211,25 @@
         <v>1770</v>
       </c>
       <c r="K300" s="2" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="M300" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="N300" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="O300" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="P300" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="Q300" t="s">
         <v>36</v>
       </c>
       <c r="R300" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -23252,25 +23264,25 @@
         <v>1736</v>
       </c>
       <c r="K301" s="2" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="M301" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="N301" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="O301" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="P301" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
       <c r="Q301" t="s">
         <v>34</v>
       </c>
       <c r="R301" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -23305,25 +23317,25 @@
         <v>1736</v>
       </c>
       <c r="K302" s="2" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="M302" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="N302" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="O302" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="P302" t="s">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="Q302" t="s">
         <v>165</v>
       </c>
       <c r="R302" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -23358,25 +23370,25 @@
         <v>1789</v>
       </c>
       <c r="K303" s="2" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="M303" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="N303" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="O303" t="s">
-        <v>2356</v>
+        <v>2357</v>
       </c>
       <c r="P303" t="s">
-        <v>2465</v>
+        <v>2466</v>
       </c>
       <c r="Q303" t="s">
         <v>73</v>
       </c>
       <c r="R303" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -23411,25 +23423,25 @@
         <v>1764</v>
       </c>
       <c r="K304" s="2" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="M304" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="N304" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="O304" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="P304" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="Q304" t="s">
         <v>68</v>
       </c>
       <c r="R304" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -23464,25 +23476,25 @@
         <v>1770</v>
       </c>
       <c r="K305" s="2" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="M305" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="N305" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="O305" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="P305" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="Q305" t="s">
         <v>49</v>
       </c>
       <c r="R305" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -23517,25 +23529,25 @@
         <v>1770</v>
       </c>
       <c r="K306" s="2" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="M306" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="N306" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="O306" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="P306" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="Q306" t="s">
         <v>36</v>
       </c>
       <c r="R306" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -23570,19 +23582,19 @@
         <v>1790</v>
       </c>
       <c r="K307" s="2" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="M307" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="N307" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="O307" t="s">
-        <v>2358</v>
+        <v>2359</v>
       </c>
       <c r="P307" t="s">
-        <v>2466</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -23617,19 +23629,19 @@
         <v>1770</v>
       </c>
       <c r="K308" s="2" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="N308" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="O308" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="Q308" t="s">
         <v>48</v>
       </c>
       <c r="R308" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -23664,25 +23676,25 @@
         <v>1757</v>
       </c>
       <c r="K309" s="2" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="M309" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="N309" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="O309" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="P309" t="s">
-        <v>2467</v>
+        <v>2468</v>
       </c>
       <c r="Q309" t="s">
         <v>148</v>
       </c>
       <c r="R309" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -23717,16 +23729,16 @@
         <v>1770</v>
       </c>
       <c r="K310" s="2" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="O310" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="Q310" t="s">
         <v>65</v>
       </c>
       <c r="R310" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -23764,19 +23776,19 @@
         <v>1800</v>
       </c>
       <c r="M311" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="N311" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="O311" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="P311" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
       <c r="R311" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -23811,25 +23823,25 @@
         <v>1770</v>
       </c>
       <c r="K312" s="2" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="M312" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="N312" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="O312" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="P312" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="Q312" t="s">
         <v>79</v>
       </c>
       <c r="R312" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -23864,25 +23876,25 @@
         <v>1788</v>
       </c>
       <c r="K313" s="2" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="M313" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="N313" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="O313" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="P313" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="Q313" t="s">
         <v>56</v>
       </c>
       <c r="R313" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -23917,25 +23929,25 @@
         <v>1783</v>
       </c>
       <c r="K314" s="2" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="M314" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="N314" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="O314" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="P314" t="s">
-        <v>2456</v>
+        <v>2457</v>
       </c>
       <c r="Q314" t="s">
         <v>39</v>
       </c>
       <c r="R314" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -23970,25 +23982,25 @@
         <v>1791</v>
       </c>
       <c r="K315" s="2" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="M315" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="N315" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="O315" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="P315" t="s">
-        <v>2453</v>
+        <v>2454</v>
       </c>
       <c r="Q315" t="s">
         <v>57</v>
       </c>
       <c r="R315" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -24023,25 +24035,25 @@
         <v>1771</v>
       </c>
       <c r="K316" s="2" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="M316" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="N316" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="O316" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="P316" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="Q316" t="s">
         <v>165</v>
       </c>
       <c r="R316" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -24076,25 +24088,25 @@
         <v>1770</v>
       </c>
       <c r="K317" s="2" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="M317" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="N317" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="O317" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="P317" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="Q317" t="s">
         <v>52</v>
       </c>
       <c r="R317" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -24129,25 +24141,25 @@
         <v>1770</v>
       </c>
       <c r="K318" s="2" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="M318" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="N318" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="O318" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="P318" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="Q318" t="s">
         <v>55</v>
       </c>
       <c r="R318" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -24182,25 +24194,25 @@
         <v>1771</v>
       </c>
       <c r="K319" s="2" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="M319" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="N319" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="O319" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="P319" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="Q319" t="s">
         <v>75</v>
       </c>
       <c r="R319" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -24235,25 +24247,25 @@
         <v>1735</v>
       </c>
       <c r="K320" s="2" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="M320" t="s">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="N320" t="s">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="O320" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="P320" t="s">
-        <v>2469</v>
+        <v>2470</v>
       </c>
       <c r="Q320" t="s">
         <v>70</v>
       </c>
       <c r="R320" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -24288,25 +24300,25 @@
         <v>1791</v>
       </c>
       <c r="K321" s="2" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="M321" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="N321" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="O321" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="P321" t="s">
-        <v>2453</v>
+        <v>2454</v>
       </c>
       <c r="Q321" t="s">
         <v>45</v>
       </c>
       <c r="R321" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -24341,25 +24353,25 @@
         <v>1770</v>
       </c>
       <c r="K322" s="2" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="M322" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="N322" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="O322" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="P322" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="Q322" t="s">
         <v>43</v>
       </c>
       <c r="R322" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -24394,25 +24406,25 @@
         <v>1792</v>
       </c>
       <c r="K323" s="2" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="M323" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="N323" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="O323" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="P323" t="s">
-        <v>2470</v>
+        <v>2471</v>
       </c>
       <c r="Q323" t="s">
         <v>74</v>
       </c>
       <c r="R323" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -24447,25 +24459,25 @@
         <v>1792</v>
       </c>
       <c r="K324" s="2" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="M324" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="N324" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="O324" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="P324" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="Q324" t="s">
         <v>70</v>
       </c>
       <c r="R324" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -24500,25 +24512,25 @@
         <v>1793</v>
       </c>
       <c r="K325" s="2" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="M325" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="N325" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="O325" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="P325" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="Q325" t="s">
         <v>59</v>
       </c>
       <c r="R325" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -24553,25 +24565,25 @@
         <v>1735</v>
       </c>
       <c r="K326" s="2" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="M326" t="s">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="N326" t="s">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="O326" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="P326" t="s">
-        <v>2469</v>
+        <v>2470</v>
       </c>
       <c r="Q326" t="s">
         <v>67</v>
       </c>
       <c r="R326" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -24606,25 +24618,25 @@
         <v>1770</v>
       </c>
       <c r="K327" s="2" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="M327" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="N327" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="O327" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="P327" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="Q327" t="s">
         <v>69</v>
       </c>
       <c r="R327" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -24659,25 +24671,25 @@
         <v>1770</v>
       </c>
       <c r="K328" s="2" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="M328" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="N328" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="O328" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="P328" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
       <c r="Q328" t="s">
         <v>84</v>
       </c>
       <c r="R328" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -24712,25 +24724,25 @@
         <v>1794</v>
       </c>
       <c r="K329" s="2" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="M329" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="N329" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="O329" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="P329" t="s">
-        <v>2471</v>
+        <v>2472</v>
       </c>
       <c r="Q329" t="s">
         <v>68</v>
       </c>
       <c r="R329" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -24765,25 +24777,25 @@
         <v>1764</v>
       </c>
       <c r="K330" s="2" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="M330" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="N330" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="O330" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="P330" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="Q330" t="s">
         <v>50</v>
       </c>
       <c r="R330" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -24818,25 +24830,25 @@
         <v>1795</v>
       </c>
       <c r="K331" s="2" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="M331" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="N331" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="O331" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="P331" t="s">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="Q331" t="s">
         <v>61</v>
       </c>
       <c r="R331" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -24871,25 +24883,25 @@
         <v>1770</v>
       </c>
       <c r="K332" s="2" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="M332" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="N332" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="O332" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="P332" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
       <c r="Q332" t="s">
         <v>74</v>
       </c>
       <c r="R332" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -24924,25 +24936,25 @@
         <v>1764</v>
       </c>
       <c r="K333" s="2" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="M333" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="N333" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="O333" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="P333" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="Q333" t="s">
         <v>37</v>
       </c>
       <c r="R333" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -24977,25 +24989,25 @@
         <v>1796</v>
       </c>
       <c r="K334" s="2" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="M334" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="N334" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="O334" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="P334" t="s">
-        <v>2473</v>
+        <v>2474</v>
       </c>
       <c r="Q334" t="s">
         <v>141</v>
       </c>
       <c r="R334" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -25030,25 +25042,25 @@
         <v>1792</v>
       </c>
       <c r="K335" s="2" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="M335" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="N335" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="O335" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="P335" t="s">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="Q335" t="s">
         <v>36</v>
       </c>
       <c r="R335" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -25083,25 +25095,25 @@
         <v>1792</v>
       </c>
       <c r="K336" s="2" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="M336" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="N336" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="O336" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="P336" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="Q336" t="s">
         <v>71</v>
       </c>
       <c r="R336" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -25136,25 +25148,25 @@
         <v>1792</v>
       </c>
       <c r="K337" s="2" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="M337" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="N337" t="s">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="O337" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="P337" t="s">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="Q337" t="s">
         <v>49</v>
       </c>
       <c r="R337" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -25189,25 +25201,25 @@
         <v>1797</v>
       </c>
       <c r="K338" s="2" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="M338" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="N338" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="O338" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="P338" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
       <c r="Q338" t="s">
         <v>142</v>
       </c>
       <c r="R338" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -25242,25 +25254,25 @@
         <v>1725</v>
       </c>
       <c r="K339" s="2" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="M339" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="N339" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="O339" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="P339" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="Q339" t="s">
         <v>41</v>
       </c>
       <c r="R339" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -25295,25 +25307,25 @@
         <v>1798</v>
       </c>
       <c r="K340" s="2" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="M340" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="N340" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="O340" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="P340" t="s">
-        <v>2475</v>
+        <v>2476</v>
       </c>
       <c r="Q340" t="s">
         <v>43</v>
       </c>
       <c r="R340" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -25348,25 +25360,25 @@
         <v>1799</v>
       </c>
       <c r="K341" s="2" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="M341" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="N341" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="O341" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="P341" t="s">
-        <v>2476</v>
+        <v>2477</v>
       </c>
       <c r="Q341" t="s">
         <v>112</v>
       </c>
       <c r="R341" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -25401,25 +25413,25 @@
         <v>1796</v>
       </c>
       <c r="K342" s="2" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="M342" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="N342" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="O342" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="P342" t="s">
-        <v>2473</v>
+        <v>2474</v>
       </c>
       <c r="Q342" t="s">
         <v>74</v>
       </c>
       <c r="R342" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -25454,25 +25466,25 @@
         <v>1797</v>
       </c>
       <c r="K343" s="2" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="M343" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="N343" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="O343" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="P343" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
       <c r="Q343" t="s">
         <v>170</v>
       </c>
       <c r="R343" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -25507,25 +25519,25 @@
         <v>1797</v>
       </c>
       <c r="K344" s="2" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="M344" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="N344" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="O344" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="P344" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
       <c r="Q344" t="s">
         <v>66</v>
       </c>
       <c r="R344" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -25560,25 +25572,25 @@
         <v>1796</v>
       </c>
       <c r="K345" s="2" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="M345" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="N345" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="O345" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="P345" t="s">
-        <v>2473</v>
+        <v>2474</v>
       </c>
       <c r="Q345" t="s">
         <v>143</v>
       </c>
       <c r="R345" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -25613,25 +25625,25 @@
         <v>1797</v>
       </c>
       <c r="K346" s="2" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="M346" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="N346" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="O346" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="P346" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
       <c r="Q346" t="s">
         <v>58</v>
       </c>
       <c r="R346" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -25666,25 +25678,25 @@
         <v>1797</v>
       </c>
       <c r="K347" s="2" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="M347" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="N347" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="O347" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="P347" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
       <c r="Q347" t="s">
         <v>43</v>
       </c>
       <c r="R347" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -25719,25 +25731,25 @@
         <v>1793</v>
       </c>
       <c r="K348" s="2" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="M348" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="N348" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="O348" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="P348" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="Q348" t="s">
         <v>68</v>
       </c>
       <c r="R348" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -25772,25 +25784,25 @@
         <v>1748</v>
       </c>
       <c r="K349" s="2" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="M349" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="N349" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="O349" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="P349" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="Q349" t="s">
         <v>34</v>
       </c>
       <c r="R349" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -25825,25 +25837,25 @@
         <v>1792</v>
       </c>
       <c r="K350" s="2" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="M350" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="N350" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="O350" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="P350" t="s">
-        <v>2470</v>
+        <v>2471</v>
       </c>
       <c r="Q350" t="s">
         <v>35</v>
       </c>
       <c r="R350" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -25878,25 +25890,25 @@
         <v>1799</v>
       </c>
       <c r="K351" s="2" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="M351" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="N351" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="O351" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="P351" t="s">
-        <v>2476</v>
+        <v>2477</v>
       </c>
       <c r="Q351" t="s">
         <v>54</v>
       </c>
       <c r="R351" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -25931,25 +25943,25 @@
         <v>1799</v>
       </c>
       <c r="K352" s="2" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="M352" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="N352" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="O352" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="P352" t="s">
-        <v>2476</v>
+        <v>2477</v>
       </c>
       <c r="Q352" t="s">
         <v>56</v>
       </c>
       <c r="R352" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -25984,25 +25996,25 @@
         <v>1748</v>
       </c>
       <c r="K353" s="2" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="M353" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="N353" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="O353" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="P353" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="Q353" t="s">
         <v>36</v>
       </c>
       <c r="R353" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -26037,25 +26049,25 @@
         <v>1799</v>
       </c>
       <c r="K354" s="2" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="M354" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="N354" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="O354" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="P354" t="s">
-        <v>2476</v>
+        <v>2477</v>
       </c>
       <c r="Q354" t="s">
         <v>40</v>
       </c>
       <c r="R354" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
   </sheetData>
@@ -26290,116 +26302,117 @@
     <hyperlink ref="K241" r:id="rId228"/>
     <hyperlink ref="K242" r:id="rId229"/>
     <hyperlink ref="K243" r:id="rId230"/>
-    <hyperlink ref="K245" r:id="rId231"/>
-    <hyperlink ref="K246" r:id="rId232"/>
-    <hyperlink ref="K247" r:id="rId233"/>
-    <hyperlink ref="K248" r:id="rId234"/>
-    <hyperlink ref="K249" r:id="rId235"/>
-    <hyperlink ref="K250" r:id="rId236"/>
-    <hyperlink ref="K251" r:id="rId237"/>
-    <hyperlink ref="K252" r:id="rId238"/>
-    <hyperlink ref="K253" r:id="rId239"/>
-    <hyperlink ref="K254" r:id="rId240"/>
-    <hyperlink ref="K255" r:id="rId241"/>
-    <hyperlink ref="K256" r:id="rId242"/>
-    <hyperlink ref="K257" r:id="rId243"/>
-    <hyperlink ref="K258" r:id="rId244"/>
-    <hyperlink ref="K259" r:id="rId245"/>
-    <hyperlink ref="K260" r:id="rId246"/>
-    <hyperlink ref="K261" r:id="rId247"/>
-    <hyperlink ref="K262" r:id="rId248"/>
-    <hyperlink ref="K263" r:id="rId249"/>
-    <hyperlink ref="K264" r:id="rId250"/>
-    <hyperlink ref="K265" r:id="rId251"/>
-    <hyperlink ref="K266" r:id="rId252"/>
-    <hyperlink ref="K267" r:id="rId253"/>
-    <hyperlink ref="K268" r:id="rId254"/>
-    <hyperlink ref="K269" r:id="rId255"/>
-    <hyperlink ref="K270" r:id="rId256"/>
-    <hyperlink ref="K271" r:id="rId257"/>
-    <hyperlink ref="K272" r:id="rId258"/>
-    <hyperlink ref="K273" r:id="rId259"/>
-    <hyperlink ref="K274" r:id="rId260"/>
-    <hyperlink ref="K275" r:id="rId261"/>
-    <hyperlink ref="K276" r:id="rId262"/>
-    <hyperlink ref="K277" r:id="rId263"/>
-    <hyperlink ref="K278" r:id="rId264"/>
-    <hyperlink ref="K279" r:id="rId265"/>
-    <hyperlink ref="K280" r:id="rId266"/>
-    <hyperlink ref="K281" r:id="rId267"/>
-    <hyperlink ref="K282" r:id="rId268"/>
-    <hyperlink ref="K283" r:id="rId269"/>
-    <hyperlink ref="K284" r:id="rId270"/>
-    <hyperlink ref="K285" r:id="rId271"/>
-    <hyperlink ref="K286" r:id="rId272"/>
-    <hyperlink ref="K287" r:id="rId273"/>
-    <hyperlink ref="K288" r:id="rId274"/>
-    <hyperlink ref="K289" r:id="rId275"/>
-    <hyperlink ref="K290" r:id="rId276"/>
-    <hyperlink ref="K291" r:id="rId277"/>
-    <hyperlink ref="K292" r:id="rId278"/>
-    <hyperlink ref="K293" r:id="rId279"/>
-    <hyperlink ref="K294" r:id="rId280"/>
-    <hyperlink ref="K295" r:id="rId281"/>
-    <hyperlink ref="K296" r:id="rId282"/>
-    <hyperlink ref="K297" r:id="rId283"/>
-    <hyperlink ref="K298" r:id="rId284"/>
-    <hyperlink ref="K299" r:id="rId285"/>
-    <hyperlink ref="K300" r:id="rId286"/>
-    <hyperlink ref="K301" r:id="rId287"/>
-    <hyperlink ref="K302" r:id="rId288"/>
-    <hyperlink ref="K303" r:id="rId289"/>
-    <hyperlink ref="K304" r:id="rId290"/>
-    <hyperlink ref="K305" r:id="rId291"/>
-    <hyperlink ref="K306" r:id="rId292"/>
-    <hyperlink ref="K307" r:id="rId293"/>
-    <hyperlink ref="K308" r:id="rId294"/>
-    <hyperlink ref="K309" r:id="rId295"/>
-    <hyperlink ref="K310" r:id="rId296"/>
-    <hyperlink ref="K311" r:id="rId297"/>
-    <hyperlink ref="K312" r:id="rId298"/>
-    <hyperlink ref="K313" r:id="rId299"/>
-    <hyperlink ref="K314" r:id="rId300"/>
-    <hyperlink ref="K315" r:id="rId301"/>
-    <hyperlink ref="K316" r:id="rId302"/>
-    <hyperlink ref="K317" r:id="rId303"/>
-    <hyperlink ref="K318" r:id="rId304"/>
-    <hyperlink ref="K319" r:id="rId305"/>
-    <hyperlink ref="K320" r:id="rId306"/>
-    <hyperlink ref="K321" r:id="rId307"/>
-    <hyperlink ref="K322" r:id="rId308"/>
-    <hyperlink ref="K323" r:id="rId309"/>
-    <hyperlink ref="K324" r:id="rId310"/>
-    <hyperlink ref="K325" r:id="rId311"/>
-    <hyperlink ref="K326" r:id="rId312"/>
-    <hyperlink ref="K327" r:id="rId313"/>
-    <hyperlink ref="K328" r:id="rId314"/>
-    <hyperlink ref="K329" r:id="rId315"/>
-    <hyperlink ref="K330" r:id="rId316"/>
-    <hyperlink ref="K331" r:id="rId317"/>
-    <hyperlink ref="K332" r:id="rId318"/>
-    <hyperlink ref="K333" r:id="rId319"/>
-    <hyperlink ref="K334" r:id="rId320"/>
-    <hyperlink ref="K335" r:id="rId321"/>
-    <hyperlink ref="K336" r:id="rId322"/>
-    <hyperlink ref="K337" r:id="rId323"/>
-    <hyperlink ref="K338" r:id="rId324"/>
-    <hyperlink ref="K339" r:id="rId325"/>
-    <hyperlink ref="K340" r:id="rId326"/>
-    <hyperlink ref="K341" r:id="rId327"/>
-    <hyperlink ref="K342" r:id="rId328"/>
-    <hyperlink ref="K343" r:id="rId329"/>
-    <hyperlink ref="K344" r:id="rId330"/>
-    <hyperlink ref="K345" r:id="rId331"/>
-    <hyperlink ref="K346" r:id="rId332"/>
-    <hyperlink ref="K347" r:id="rId333"/>
-    <hyperlink ref="K348" r:id="rId334"/>
-    <hyperlink ref="K349" r:id="rId335"/>
-    <hyperlink ref="K350" r:id="rId336"/>
-    <hyperlink ref="K351" r:id="rId337"/>
-    <hyperlink ref="K352" r:id="rId338"/>
-    <hyperlink ref="K353" r:id="rId339"/>
-    <hyperlink ref="K354" r:id="rId340"/>
+    <hyperlink ref="K244" r:id="rId231"/>
+    <hyperlink ref="K245" r:id="rId232"/>
+    <hyperlink ref="K246" r:id="rId233"/>
+    <hyperlink ref="K247" r:id="rId234"/>
+    <hyperlink ref="K248" r:id="rId235"/>
+    <hyperlink ref="K249" r:id="rId236"/>
+    <hyperlink ref="K250" r:id="rId237"/>
+    <hyperlink ref="K251" r:id="rId238"/>
+    <hyperlink ref="K252" r:id="rId239"/>
+    <hyperlink ref="K253" r:id="rId240"/>
+    <hyperlink ref="K254" r:id="rId241"/>
+    <hyperlink ref="K255" r:id="rId242"/>
+    <hyperlink ref="K256" r:id="rId243"/>
+    <hyperlink ref="K257" r:id="rId244"/>
+    <hyperlink ref="K258" r:id="rId245"/>
+    <hyperlink ref="K259" r:id="rId246"/>
+    <hyperlink ref="K260" r:id="rId247"/>
+    <hyperlink ref="K261" r:id="rId248"/>
+    <hyperlink ref="K262" r:id="rId249"/>
+    <hyperlink ref="K263" r:id="rId250"/>
+    <hyperlink ref="K264" r:id="rId251"/>
+    <hyperlink ref="K265" r:id="rId252"/>
+    <hyperlink ref="K266" r:id="rId253"/>
+    <hyperlink ref="K267" r:id="rId254"/>
+    <hyperlink ref="K268" r:id="rId255"/>
+    <hyperlink ref="K269" r:id="rId256"/>
+    <hyperlink ref="K270" r:id="rId257"/>
+    <hyperlink ref="K271" r:id="rId258"/>
+    <hyperlink ref="K272" r:id="rId259"/>
+    <hyperlink ref="K273" r:id="rId260"/>
+    <hyperlink ref="K274" r:id="rId261"/>
+    <hyperlink ref="K275" r:id="rId262"/>
+    <hyperlink ref="K276" r:id="rId263"/>
+    <hyperlink ref="K277" r:id="rId264"/>
+    <hyperlink ref="K278" r:id="rId265"/>
+    <hyperlink ref="K279" r:id="rId266"/>
+    <hyperlink ref="K280" r:id="rId267"/>
+    <hyperlink ref="K281" r:id="rId268"/>
+    <hyperlink ref="K282" r:id="rId269"/>
+    <hyperlink ref="K283" r:id="rId270"/>
+    <hyperlink ref="K284" r:id="rId271"/>
+    <hyperlink ref="K285" r:id="rId272"/>
+    <hyperlink ref="K286" r:id="rId273"/>
+    <hyperlink ref="K287" r:id="rId274"/>
+    <hyperlink ref="K288" r:id="rId275"/>
+    <hyperlink ref="K289" r:id="rId276"/>
+    <hyperlink ref="K290" r:id="rId277"/>
+    <hyperlink ref="K291" r:id="rId278"/>
+    <hyperlink ref="K292" r:id="rId279"/>
+    <hyperlink ref="K293" r:id="rId280"/>
+    <hyperlink ref="K294" r:id="rId281"/>
+    <hyperlink ref="K295" r:id="rId282"/>
+    <hyperlink ref="K296" r:id="rId283"/>
+    <hyperlink ref="K297" r:id="rId284"/>
+    <hyperlink ref="K298" r:id="rId285"/>
+    <hyperlink ref="K299" r:id="rId286"/>
+    <hyperlink ref="K300" r:id="rId287"/>
+    <hyperlink ref="K301" r:id="rId288"/>
+    <hyperlink ref="K302" r:id="rId289"/>
+    <hyperlink ref="K303" r:id="rId290"/>
+    <hyperlink ref="K304" r:id="rId291"/>
+    <hyperlink ref="K305" r:id="rId292"/>
+    <hyperlink ref="K306" r:id="rId293"/>
+    <hyperlink ref="K307" r:id="rId294"/>
+    <hyperlink ref="K308" r:id="rId295"/>
+    <hyperlink ref="K309" r:id="rId296"/>
+    <hyperlink ref="K310" r:id="rId297"/>
+    <hyperlink ref="K311" r:id="rId298"/>
+    <hyperlink ref="K312" r:id="rId299"/>
+    <hyperlink ref="K313" r:id="rId300"/>
+    <hyperlink ref="K314" r:id="rId301"/>
+    <hyperlink ref="K315" r:id="rId302"/>
+    <hyperlink ref="K316" r:id="rId303"/>
+    <hyperlink ref="K317" r:id="rId304"/>
+    <hyperlink ref="K318" r:id="rId305"/>
+    <hyperlink ref="K319" r:id="rId306"/>
+    <hyperlink ref="K320" r:id="rId307"/>
+    <hyperlink ref="K321" r:id="rId308"/>
+    <hyperlink ref="K322" r:id="rId309"/>
+    <hyperlink ref="K323" r:id="rId310"/>
+    <hyperlink ref="K324" r:id="rId311"/>
+    <hyperlink ref="K325" r:id="rId312"/>
+    <hyperlink ref="K326" r:id="rId313"/>
+    <hyperlink ref="K327" r:id="rId314"/>
+    <hyperlink ref="K328" r:id="rId315"/>
+    <hyperlink ref="K329" r:id="rId316"/>
+    <hyperlink ref="K330" r:id="rId317"/>
+    <hyperlink ref="K331" r:id="rId318"/>
+    <hyperlink ref="K332" r:id="rId319"/>
+    <hyperlink ref="K333" r:id="rId320"/>
+    <hyperlink ref="K334" r:id="rId321"/>
+    <hyperlink ref="K335" r:id="rId322"/>
+    <hyperlink ref="K336" r:id="rId323"/>
+    <hyperlink ref="K337" r:id="rId324"/>
+    <hyperlink ref="K338" r:id="rId325"/>
+    <hyperlink ref="K339" r:id="rId326"/>
+    <hyperlink ref="K340" r:id="rId327"/>
+    <hyperlink ref="K341" r:id="rId328"/>
+    <hyperlink ref="K342" r:id="rId329"/>
+    <hyperlink ref="K343" r:id="rId330"/>
+    <hyperlink ref="K344" r:id="rId331"/>
+    <hyperlink ref="K345" r:id="rId332"/>
+    <hyperlink ref="K346" r:id="rId333"/>
+    <hyperlink ref="K347" r:id="rId334"/>
+    <hyperlink ref="K348" r:id="rId335"/>
+    <hyperlink ref="K349" r:id="rId336"/>
+    <hyperlink ref="K350" r:id="rId337"/>
+    <hyperlink ref="K351" r:id="rId338"/>
+    <hyperlink ref="K352" r:id="rId339"/>
+    <hyperlink ref="K353" r:id="rId340"/>
+    <hyperlink ref="K354" r:id="rId341"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/xlsx/away-covid.xlsx
+++ b/dataset/xlsx/away-covid.xlsx
@@ -3439,7 +3439,7 @@
     <t>Timeline ผู้ป่วยติดเชื้อ โควิดเพชรบุรี รายที่ 32</t>
   </si>
   <si>
-    <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 44</t>
+    <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 42</t>
   </si>
   <si>
     <t>ผู้ป่วยติดเชื้อ โควิดอยุธยา รายที่ 43</t>
